--- a/exel1.xlsx
+++ b/exel1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="1" r:id="rId6" sheetId="4"/>
     <sheet name="2" r:id="rId7" sheetId="5"/>
     <sheet name="3" r:id="rId8" sheetId="6"/>
+    <sheet name="5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>Number of truck</t>
   </si>
@@ -179,6 +180,36 @@
   </si>
   <si>
     <t>15:40:54.220546900</t>
+  </si>
+  <si>
+    <t>7456.0</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>12:48:37.362999</t>
+  </si>
+  <si>
+    <t>238756238</t>
+  </si>
+  <si>
+    <t>2376453</t>
+  </si>
+  <si>
+    <t>12:48:49.276491</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>11:04:01.092859900</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>11:06:14.292429600</t>
   </si>
 </sst>
 </file>
@@ -637,4 +668,51 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>